--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wpa9071/Desktop/Rover_Team/Rover_Team/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B56CA523-5719-4147-B449-A84ECC27ED70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0854875-A094-6B48-806A-6E72CB98D6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{E36AAD54-CF44-3E4C-AF22-20A3A650F6F3}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Preliminary Backlog </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Reading and interface all the sensor information such as the GPS, IMS, Velocity sensors, Communications </t>
   </si>
@@ -45,32 +42,68 @@
     <t>Using clear and concise variables and comments </t>
   </si>
   <si>
-    <t>Communications need tot all to the server (a bit of work but done, use a universal header)</t>
-  </si>
-  <si>
     <t>Talking to server and arm server. (Currently set up using ISQC protocol)</t>
   </si>
   <si>
     <t>Handed the three-dimensional data- three data values floating point number (four byte numbers for three dimensions)</t>
   </si>
   <si>
-    <t>Control the motors and receive data and open it but everything else</t>
-  </si>
-  <si>
     <t>Talking between an Ardunio to Arduino.</t>
   </si>
   <si>
-    <t>Get familiar with the Arduino with the system and software systems </t>
-  </si>
-  <si>
     <t>ADD documentation (but this is the last step).</t>
+  </si>
+  <si>
+    <t>Communications need to talk to the server (a bit of work but done, use a universal header)</t>
+  </si>
+  <si>
+    <t>Data Handling Requirements</t>
+  </si>
+  <si>
+    <t>Control the motors and receive data and open it but everything else leave alone</t>
+  </si>
+  <si>
+    <t>Communication Requirements</t>
+  </si>
+  <si>
+    <t>Programming Requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface Requirements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that each team member has access to the GitHub repository and cloned to individual computer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show teams how to push, pull, and commit from the repository </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure team has all the nessacary development software IDE downloaded and configured. </t>
+  </si>
+  <si>
+    <t>SPRINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subgroup leader must gain access to code from GitLab from Controls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino Subgroup Product Backlog </t>
+  </si>
+  <si>
+    <t>SCRUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show team members how to use an Arduino and push pinout diagram to repository </t>
+  </si>
+  <si>
+    <t>Determine what the team is going to complete and ensure all team members are committed to subgroup.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +112,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -105,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E8852-D00A-764B-9A5B-AD16FEC28716}">
-  <dimension ref="B1:B12"/>
+  <dimension ref="B1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,58 +476,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="2"/>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>4</v>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wpa9071/Desktop/Rover_Team/Rover_Team/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\OneDrive\Desktop\Rover_Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0854875-A094-6B48-806A-6E72CB98D6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB01020-A47D-495B-9192-AC8C2F78D236}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{E36AAD54-CF44-3E4C-AF22-20A3A650F6F3}"/>
+    <workbookView xWindow="14184" yWindow="1128" windowWidth="13668" windowHeight="12960" xr2:uid="{E36AAD54-CF44-3E4C-AF22-20A3A650F6F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,12 +125,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,10 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,131 +472,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E8852-D00A-764B-9A5B-AD16FEC28716}">
   <dimension ref="B1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="106" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:2">
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" s="2"/>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:2" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:2" ht="17.05" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:2">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:2">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:2">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2">
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>

--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -1,131 +1,271 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debor\OneDrive\Desktop\Rover_Lab\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB01020-A47D-495B-9192-AC8C2F78D236}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14184" yWindow="1128" windowWidth="13668" windowHeight="12960" xr2:uid="{E36AAD54-CF44-3E4C-AF22-20A3A650F6F3}"/>
+    <workbookView windowWidth="22943" windowHeight="9875"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+  <si>
+    <t xml:space="preserve">Arduino Subgroup Product Backlog </t>
+  </si>
+  <si>
+    <t>SPRINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface Requirements </t>
+  </si>
+  <si>
+    <t>Determine what the team is going to complete and ensure all team members are committed to subgroup.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure that each team member has access to the GitHub repository and cloned to individual computer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show teams how to push, pull, and commit from the repository </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure team has all the nessacary development software IDE downloaded and configured. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subgroup leader must gain access to code from GitLab from Controls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show team members how to use an Arduino and push pinout diagram to repository </t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Data Handling Requirements</t>
+  </si>
   <si>
     <t>Reading and interface all the sensor information such as the GPS, IMS, Velocity sensors, Communications </t>
   </si>
   <si>
+    <t>Handed the three-dimensional data- three data values floating point number (four byte numbers for three dimensions)</t>
+  </si>
+  <si>
+    <t>Control the motors and receive data and open it but everything else leave alone</t>
+  </si>
+  <si>
+    <t>Communication Requirements</t>
+  </si>
+  <si>
+    <t>Talking between an Ardunio to Arduino.</t>
+  </si>
+  <si>
+    <t>Communications need to talk to the server (a bit of work but done, use a universal header)</t>
+  </si>
+  <si>
+    <t>Talking to server and arm server. (Currently set up using ISQC protocol)</t>
+  </si>
+  <si>
+    <t>Programming Requirements</t>
+  </si>
+  <si>
     <t>Reviewing old code from previous group</t>
   </si>
   <si>
     <t>Using clear and concise variables and comments </t>
   </si>
   <si>
-    <t>Talking to server and arm server. (Currently set up using ISQC protocol)</t>
-  </si>
-  <si>
-    <t>Handed the three-dimensional data- three data values floating point number (four byte numbers for three dimensions)</t>
-  </si>
-  <si>
-    <t>Talking between an Ardunio to Arduino.</t>
-  </si>
-  <si>
     <t>ADD documentation (but this is the last step).</t>
-  </si>
-  <si>
-    <t>Communications need to talk to the server (a bit of work but done, use a universal header)</t>
-  </si>
-  <si>
-    <t>Data Handling Requirements</t>
-  </si>
-  <si>
-    <t>Control the motors and receive data and open it but everything else leave alone</t>
-  </si>
-  <si>
-    <t>Communication Requirements</t>
-  </si>
-  <si>
-    <t>Programming Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interface Requirements </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure that each team member has access to the GitHub repository and cloned to individual computer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show teams how to push, pull, and commit from the repository </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ensure team has all the nessacary development software IDE downloaded and configured. </t>
-  </si>
-  <si>
-    <t>SPRINT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subgroup leader must gain access to code from GitLab from Controls </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino Subgroup Product Backlog </t>
-  </si>
-  <si>
-    <t>SCRUM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Show team members how to use an Arduino and push pinout diagram to repository </t>
-  </si>
-  <si>
-    <t>Determine what the team is going to complete and ensure all team members are committed to subgroup.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,12 +274,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,27 +473,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -216,7 +828,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -249,26 +861,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -301,23 +896,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,149 +1037,145 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E8852-D00A-764B-9A5B-AD16FEC28716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="15.6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="2" t="s">
-        <v>18</v>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
-        <v>16</v>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
-        <v>12</v>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="17.05" customHeight="1">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="17.05" customHeight="1" spans="2:2">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>14</v>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>15</v>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>17</v>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="1" t="s">
-        <v>6</v>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Anderson\Desktop\GitHub\Rover_Team_Controls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D4FED-7BFD-4B11-B221-2F4F9E9FC675}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48C1AFD-32C8-4730-8994-D1A51058DAFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t xml:space="preserve">Arduino Subgroup Product Backlog </t>
   </si>
@@ -43,27 +43,12 @@
     <t>Handed the three-dimensional data- three data values floating point number (four byte numbers for three dimensions)</t>
   </si>
   <si>
-    <t>Control the motors and receive data and open it but everything else leave alone</t>
-  </si>
-  <si>
-    <t>Talking between an Ardunio to Arduino.</t>
-  </si>
-  <si>
-    <t>Communications need to talk to the server (a bit of work but done, use a universal header)</t>
-  </si>
-  <si>
-    <t>Talking to server and arm server. (Currently set up using ISQC protocol)</t>
-  </si>
-  <si>
     <t>Reviewing old code from previous group</t>
   </si>
   <si>
     <t>Using clear and concise variables and comments </t>
   </si>
   <si>
-    <t>ADD documentation (but this is the last step).</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -95,6 +80,18 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Parse data packets, process as appropriate.</t>
+  </si>
+  <si>
+    <t>Talking between an Ardunio to Arduino using I2C protocol.</t>
+  </si>
+  <si>
+    <t>Communications need to talk to the server using Packet.h and Global_Definitions.h</t>
+  </si>
+  <si>
+    <t>ADD documentation (lowest priority).</t>
   </si>
 </sst>
 </file>
@@ -227,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -237,7 +234,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -519,7 +515,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
@@ -534,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -563,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -574,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -582,10 +578,10 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -596,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -607,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -616,10 +612,10 @@
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -627,47 +623,49 @@
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="2"/>
-      <c r="B13" s="9"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="2"/>
@@ -676,8 +674,8 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
-      <c r="B18" s="10" t="s">
-        <v>23</v>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -685,8 +683,8 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
-      <c r="B19" s="10" t="s">
-        <v>6</v>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -695,7 +693,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="10" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -703,8 +701,8 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
-      <c r="B21" s="11" t="s">
-        <v>8</v>
+      <c r="B21" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -712,17 +710,15 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
-      <c r="B22" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
-      <c r="B23" s="10" t="s">
-        <v>10</v>
+      <c r="B23" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -730,8 +726,8 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
-      <c r="B24" s="10" t="s">
-        <v>11</v>
+      <c r="B24" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -739,8 +735,8 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
-      <c r="B25" s="10" t="s">
-        <v>12</v>
+      <c r="B25" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -748,8 +744,8 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
-      <c r="B26" s="10" t="s">
-        <v>13</v>
+      <c r="B26" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -757,9 +753,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2"/>
-      <c r="B27" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -794,7 +788,6 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>

--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Anderson\Desktop\GitHub\Rover_Team_Controls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48C1AFD-32C8-4730-8994-D1A51058DAFE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C00678C-B841-4116-9005-BC00D6FF25F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t xml:space="preserve">Arduino Subgroup Product Backlog </t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Completed</t>
-  </si>
-  <si>
-    <t>To be completed by 10/1</t>
   </si>
   <si>
     <t xml:space="preserve">Receive information from Proof of Life on what expirement they wish to conduct </t>
@@ -515,7 +512,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
@@ -530,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -578,7 +575,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -603,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -612,7 +609,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -623,10 +620,10 @@
     <row r="12" spans="1:6">
       <c r="A12" s="2"/>
       <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -641,7 +638,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -657,7 +654,7 @@
     <row r="16" spans="1:6">
       <c r="A16" s="2"/>
       <c r="B16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -666,7 +663,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -684,7 +681,7 @@
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -693,7 +690,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -702,7 +699,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
       <c r="B21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -736,7 +733,7 @@
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -745,7 +742,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>

--- a/Deliverables.xlsx
+++ b/Deliverables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Anderson\Desktop\GitHub\Rover_Team_Controls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C00678C-B841-4116-9005-BC00D6FF25F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D357D09-1480-4A5B-90AC-1192D1C62365}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
@@ -707,7 +707,9 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
-      <c r="B22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -715,7 +717,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -724,7 +726,7 @@
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -732,8 +734,8 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
-      <c r="B25" s="9" t="s">
-        <v>22</v>
+      <c r="B25" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -741,9 +743,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
-      <c r="B26" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -778,16 +778,9 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
